--- a/Input Data/Conferences.xlsx
+++ b/Input Data/Conferences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580bce16df9ec0bf/Documents/Navigate/CFP Simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580bce16df9ec0bf/Documents/Navigate/CFP Simulator/Input Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{5517F0AA-22C3-49B4-BB71-DB5778D18CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B3D442-52D9-4B76-A776-509B82BE4A2E}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{5517F0AA-22C3-49B4-BB71-DB5778D18CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64385A99-E4CF-4D67-A745-E8F39ECC2FCF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D05DAB30-B7C0-4384-BC9A-5B31BC32F4BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="158">
   <si>
     <t>School</t>
   </si>
@@ -875,11 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D495C4F-892B-4E7A-BAD8-DE36490A8899}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I123" sqref="I123"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
         <v>151</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
         <v>151</v>
@@ -4369,65 +4369,13 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>77</v>
-      </c>
-      <c r="B135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" t="s">
-        <v>81</v>
-      </c>
-      <c r="D135">
-        <v>11</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>84</v>
-      </c>
-      <c r="B136" t="s">
-        <v>151</v>
-      </c>
-      <c r="C136" t="s">
-        <v>81</v>
-      </c>
-      <c r="D136">
-        <v>11</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H136">
-    <sortCondition ref="D2:D136"/>
-    <sortCondition ref="A2:A136"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H134">
+    <sortCondition ref="D2:D134"/>
+    <sortCondition ref="A2:A134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input Data/Conferences.xlsx
+++ b/Input Data/Conferences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/580bce16df9ec0bf/Documents/Navigate/CFP Simulator/Input Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{5517F0AA-22C3-49B4-BB71-DB5778D18CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64385A99-E4CF-4D67-A745-E8F39ECC2FCF}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{5517F0AA-22C3-49B4-BB71-DB5778D18CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC8F4C2-AA64-47DB-9B5C-044EFC890ADE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D05DAB30-B7C0-4384-BC9A-5B31BC32F4BB}"/>
   </bookViews>
@@ -572,10 +572,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,7 +875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
